--- a/biology/Botanique/Parc_Pirogov/Parc_Pirogov.xlsx
+++ b/biology/Botanique/Parc_Pirogov/Parc_Pirogov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Pirogov (estonien : Pirogovi park) est un parc du quartier Kesklinn de Tartu en Estonie.
 </t>
@@ -511,13 +523,15 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Pirogov est situé en bas de la pente de Toomemägi à côté de la rue Ülikooli tänav et de la rue Lossi tänav.
 Un mémorial à Nikolaï Pirogov est érigé dans le parc.
 Le parc Pirogov est un lieu de consommation de bière traditionnel pour les étudiants de Tartu.
-Puisqu'il est généralement interdit de consommer de l'alcool dans les lieux publics, cette question fait l'objet d'un débat public depuis des années[1],[2],[3].
-En guise de solution, ces dernières années, le décret du conseil municipal de Tartu a autorisé l'utilisation de l'espace vert marqué entre le sentier au pied de la pente de Toomemägi du parc Pirogov et la rue Ülikooli tänav comme lieu de pique-nique en été (du 15 mars au 15 octobre), où les boissons alcoolisées jusqu'à 6 pour cent en volume peuvent être consommées[4].
+Puisqu'il est généralement interdit de consommer de l'alcool dans les lieux publics, cette question fait l'objet d'un débat public depuis des années.
+En guise de solution, ces dernières années, le décret du conseil municipal de Tartu a autorisé l'utilisation de l'espace vert marqué entre le sentier au pied de la pente de Toomemägi du parc Pirogov et la rue Ülikooli tänav comme lieu de pique-nique en été (du 15 mars au 15 octobre), où les boissons alcoolisées jusqu'à 6 pour cent en volume peuvent être consommées.
 </t>
         </is>
       </c>
